--- a/mosip_master/xlsx/machine_spec.xlsx
+++ b/mosip_master/xlsx/machine_spec.xlsx
@@ -1,108 +1,400 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wuriguineecom-my.sharepoint.com/personal/iteli_bah_wuriguinee_com/Documents/Bureau/master-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C32D9E-E4A3-4778-BEBB-461C12B4F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5D080534-C95C-4BFE-88CA-9DFB525AA4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B03CA42-31AB-43F1-A107-6C31232AA817}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>mtyp_code</t>
+  </si>
+  <si>
+    <t>min_driver_ver</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>mtyp_code</t>
-  </si>
-  <si>
-    <t>min_driver_ver</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>Resident Virtual Machine</t>
-  </si>
-  <si>
-    <t>Unkown</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>RESIDENT-REG</t>
-  </si>
-  <si>
-    <t>RESIDENT-1</t>
+    <t>1.454</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>PROBOOK</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>430 G6</t>
+  </si>
+  <si>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>PC pour pour les enrôlements en phase developpement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -111,36 +403,203 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,83 +913,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/machine_spec.xlsx
+++ b/mosip_master/xlsx/machine_spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wuriguineecom-my.sharepoint.com/personal/iteli_bah_wuriguinee_com/Documents/Bureau/master-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5D080534-C95C-4BFE-88CA-9DFB525AA4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B03CA42-31AB-43F1-A107-6C31232AA817}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2117A3-CA0C-4F8A-A055-B0698B307A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -49,15 +49,9 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>1.454</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>PROBOOK</t>
   </si>
   <si>
@@ -70,7 +64,31 @@
     <t>LTP</t>
   </si>
   <si>
-    <t>PC pour pour les enrôlements en phase developpement</t>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>PC pour pour les enrÃ´lements en phase developpement</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -554,52 +572,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,7 +634,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -911,74 +930,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1001</v>
-      </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
+      <c r="F2">
+        <v>1.454</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45079.57824934028</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
